--- a/output.xlsx
+++ b/output.xlsx
@@ -574,40 +574,44 @@
           <t>Linux</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2 cores</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.24% (0.02 cores)</t>
+          <t>0.49% (0.01 cores)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7.99% (0.16 cores)</t>
+          <t>4.58% (0.09 cores)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4.62% (0.09 cores)</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>8</v>
+          <t>2.53% (0.05 cores)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8.0 GB</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12.90% (1.03 GB)</t>
+          <t>12.97% (1.04 GB)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>25.37% (2.03 GB)</t>
+          <t>15.67% (1.25 GB)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>19.13% (1.53 GB)</t>
+          <t>14.32% (1.15 GB)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -747,26 +751,30 @@
           <t>Windows</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 cores</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.24% (0.02 cores)</t>
+          <t>1.25% (0.02 cores)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>32.78% (0.66 cores)</t>
+          <t>39.58% (0.79 cores)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17.01% (0.34 cores)</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
+          <t>20.41% (0.41 cores)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8.0 GB</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -775,12 +783,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>66.78% (5.34 GB)</t>
+          <t>56.12% (4.49 GB)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>45.16% (3.61 GB)</t>
+          <t>39.83% (3.19 GB)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -920,8 +928,10 @@
           <t>Windows</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>2</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 cores</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -930,30 +940,32 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>42.93% (0.86 cores)</t>
+          <t>53.59% (1.07 cores)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>25.48% (0.51 cores)</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>8</v>
+          <t>30.80% (0.62 cores)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8.0 GB</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23.42% (1.87 GB)</t>
+          <t>17.06% (1.36 GB)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>38.92% (3.11 GB)</t>
+          <t>41.79% (3.34 GB)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>31.17% (2.49 GB)</t>
+          <t>29.43% (2.35 GB)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
